--- a/example_data/example_data.xlsx
+++ b/example_data/example_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\data_portal\example_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF08176-0666-483B-818B-E052DCB7B16E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63FE51B-B0DD-4AD0-B400-FD851B168761}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{A5A9E2DC-A0E2-43B1-A220-BA194E3C7DB8}"/>
   </bookViews>
